--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail9 Features.xlsx
@@ -883,7 +883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -895,28 +895,26 @@
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -937,115 +935,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -1062,72 +1050,66 @@
         <v>3.780187344571047e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.001917244745875608</v>
+        <v>1.122788188431737e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.5971948118004</v>
+        <v>6.413712953174463e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.122788188431737e-06</v>
+        <v>-0.01759467372513376</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>6.413712953174463e-06</v>
+        <v>0.1303125164715298</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01759467372513376</v>
+        <v>0.01727799411543694</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1303125164715298</v>
+        <v>1.635790920325955</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01727799411543694</v>
+        <v>1.597975491366652</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.571152528197349</v>
+        <v>4.534237854516324</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.597975491366652</v>
+        <v>3.822739709674693e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.534237854516324</v>
+        <v>13933399.95885941</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.822739709674693e-14</v>
+        <v>7.704153460053724e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>13933399.95885941</v>
+        <v>7.421452896943805</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.704153460053724e-06</v>
+        <v>0.0001145423457160048</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>7.421452896943805</v>
+        <v>7.360845842158604</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001145423457160048</v>
+        <v>1.291613683844504</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>7.360845842158604</v>
+        <v>0.006206139275892589</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.291613683844504</v>
+        <v>3.219217710589097</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.006206139275892589</v>
+        <v>0.9496000188991889</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.219217710589097</v>
+        <v>1.785911012541889</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9496000188991889</v>
+        <v>5</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.785911012541889</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.206188743387663</v>
       </c>
     </row>
@@ -1142,72 +1124,66 @@
         <v>3.764155996675081e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.04059412697397044</v>
+        <v>1.122788188431737e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.577593072645163</v>
+        <v>6.407396828328455e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.122788188431737e-06</v>
+        <v>-0.01619680458263309</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>6.407396828328455e-06</v>
+        <v>0.1345122091315182</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01619680458263309</v>
+        <v>0.01834514453511374</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1345122091315182</v>
+        <v>1.564313083506818</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01834514453511374</v>
+        <v>1.551619493823113</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.490607805994064</v>
+        <v>4.109143577878059</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.551619493823113</v>
+        <v>5.098129633563837e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.109143577878059</v>
+        <v>10800604.09556701</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.098129633563837e-14</v>
+        <v>9.602350761844172e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>10800604.09556701</v>
+        <v>5.947123650816061</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9.602350761844172e-06</v>
+        <v>0.0001360453582745086</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>5.947123650816061</v>
+        <v>8.05350190141491</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001360453582745086</v>
+        <v>1.43211001760139</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.05350190141491</v>
+        <v>0.008823751318616128</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.43211001760139</v>
+        <v>3.116349989909853</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.008823751318616128</v>
+        <v>0.9449484206685432</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.116349989909853</v>
+        <v>1.863787472967841</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9449484206685432</v>
+        <v>5</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.863787472967841</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1807378086129513</v>
       </c>
     </row>
@@ -1222,72 +1198,66 @@
         <v>3.730354274591629e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.07135107338749194</v>
+        <v>1.122788188431737e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.542292356966748</v>
+        <v>6.401338380123209e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.122788188431737e-06</v>
+        <v>-0.01610678479274262</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.401338380123209e-06</v>
+        <v>0.1362107503071654</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01610678479274262</v>
+        <v>0.01880569971143722</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1362107503071654</v>
+        <v>1.522161138745642</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01880569971143722</v>
+        <v>1.543640294283201</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.448162926834781</v>
+        <v>3.827241783209665</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.543640294283201</v>
+        <v>5.876810787525701e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.827241783209665</v>
+        <v>9630853.499645375</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.876810787525701e-14</v>
+        <v>1.048597533466553e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>9630853.499645375</v>
+        <v>5.450938239878021</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.048597533466553e-05</v>
+        <v>0.0001637927263779284</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>5.450938239878021</v>
+        <v>9.160105245572247</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001637927263779284</v>
+        <v>1.434294764663813</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.160105245572247</v>
+        <v>0.01374344279276304</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.434294764663813</v>
+        <v>2.9458544018482</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01374344279276304</v>
+        <v>0.9429048210703376</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.9458544018482</v>
+        <v>1.860255530731667</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9429048210703376</v>
+        <v>5</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.860255530731667</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1600715820991978</v>
       </c>
     </row>
@@ -1302,72 +1272,66 @@
         <v>3.680919707380358e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.08666896378669631</v>
+        <v>1.122788188431737e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.507472181470334</v>
+        <v>6.395279112018642e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.122788188431737e-06</v>
+        <v>-0.01676488610082457</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>6.395279112018642e-06</v>
+        <v>0.137341672273366</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01676488610082457</v>
+        <v>0.01913936557403935</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.137341672273366</v>
+        <v>1.48626241064824</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01913936557403935</v>
+        <v>1.517770113669989</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.411977100683961</v>
+        <v>3.548914297679232</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.517770113669989</v>
+        <v>6.834747634552253e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.548914297679232</v>
+        <v>8361027.521704533</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>6.834747634552253e-14</v>
+        <v>1.183507682254083e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>8361027.521704533</v>
+        <v>4.777952075736761</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.183507682254083e-05</v>
+        <v>0.0001476502872232289</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>4.777952075736761</v>
+        <v>9.290066925357261</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001476502872232289</v>
+        <v>1.319580533187202</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.290066925357261</v>
+        <v>0.01274300875336956</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.319580533187202</v>
+        <v>2.986017477399094</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01274300875336956</v>
+        <v>0.9373826796875402</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.986017477399094</v>
+        <v>1.88280298420165</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9373826796875402</v>
+        <v>5</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.88280298420165</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1651106913882341</v>
       </c>
     </row>
@@ -1382,72 +1346,66 @@
         <v>3.614620571411404e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.08260707607178475</v>
+        <v>1.122788188431737e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.490867501894841</v>
+        <v>6.388861389103867e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.122788188431737e-06</v>
+        <v>-0.01836941904358298</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.388861389103867e-06</v>
+        <v>0.1382095412385091</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01836941904358298</v>
+        <v>0.01943677896777314</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1382095412385091</v>
+        <v>1.473463946329692</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01943677896777314</v>
+        <v>1.490843935680047</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.401452701271877</v>
+        <v>3.50424807033943</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.490843935680047</v>
+        <v>7.010093670150403e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.50424807033943</v>
+        <v>7987518.746279179</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.010093670150403e-14</v>
+        <v>1.226306803628786e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>7987518.746279179</v>
+        <v>4.47247170810634</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.226306803628786e-05</v>
+        <v>0.0001304710033642824</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>4.47247170810634</v>
+        <v>9.543338538791513</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001304710033642824</v>
+        <v>1.169968260945891</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.543338538791513</v>
+        <v>0.01188268713821037</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.169968260945891</v>
+        <v>2.992461783134226</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01188268713821037</v>
+        <v>0.9373955058929697</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.992461783134226</v>
+        <v>1.874239091582347</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9373955058929697</v>
+        <v>5</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.874239091582347</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1833708067588365</v>
       </c>
     </row>
@@ -1462,72 +1420,66 @@
         <v>3.534119040847821e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.05531404568981199</v>
+        <v>1.122788188431737e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.511216677506053</v>
+        <v>6.382212579155808e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.122788188431737e-06</v>
+        <v>-0.01843126428983012</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>6.382212579155808e-06</v>
+        <v>0.1416256290463972</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01843126428983012</v>
+        <v>0.02039653585329773</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1416256290463972</v>
+        <v>1.439474010525404</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02039653585329773</v>
+        <v>1.450276206510452</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.371938310997411</v>
+        <v>3.729753701779009</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.450276206510452</v>
+        <v>6.18804124217646e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.729753701779009</v>
+        <v>9348241.422575222</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>6.18804124217646e-14</v>
+        <v>1.012765869298321e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>9348241.422575222</v>
+        <v>5.407705584331542</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.012765869298321e-05</v>
+        <v>0.0001254616518355793</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>5.407705584331542</v>
+        <v>10.10705581486673</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001254616518355793</v>
+        <v>1.190549328440536</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.10705581486673</v>
+        <v>0.01281623108039815</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.190549328440536</v>
+        <v>2.987522483156907</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01281623108039815</v>
+        <v>0.9337719522714316</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.987522483156907</v>
+        <v>1.883223557228759</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9337719522714316</v>
+        <v>6</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.883223557228759</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1975559590081086</v>
       </c>
     </row>
@@ -1904,7 +1856,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.482083028795788</v>
+        <v>1.499687146875943</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.692987119933713</v>
@@ -1993,7 +1945,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.483413482424225</v>
+        <v>1.495697124930669</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.4351903485707</v>
@@ -2082,7 +2034,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.494827169866878</v>
+        <v>1.49829624913422</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.548403827426666</v>
@@ -2171,7 +2123,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.51749498032585</v>
+        <v>1.515019838362788</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.408393498293388</v>
@@ -2260,7 +2212,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.511917049995467</v>
+        <v>1.515210555683205</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.739061547948312</v>
@@ -2349,7 +2301,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477443686827379</v>
+        <v>1.481075777876754</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.568771635237676</v>
@@ -2438,7 +2390,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.479279641374015</v>
+        <v>1.47870905340255</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.266703919129194</v>
@@ -2527,7 +2479,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.490158812859886</v>
+        <v>1.481361789226221</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.506358793440497</v>
@@ -2616,7 +2568,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.533964592866716</v>
+        <v>1.513028560247674</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.537340182060711</v>
@@ -2705,7 +2657,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.585832224644078</v>
+        <v>1.542187543218434</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.494758302723698</v>
@@ -2794,7 +2746,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.585824213707651</v>
+        <v>1.531225037991027</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.600354959461264</v>
@@ -2883,7 +2835,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.595477479138985</v>
+        <v>1.535713105386676</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.580192031787885</v>
@@ -2972,7 +2924,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.588726148754192</v>
+        <v>1.534535261654231</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.498738479542226</v>
@@ -3061,7 +3013,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.587486184663789</v>
+        <v>1.533861171865431</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.590086444562</v>
@@ -3150,7 +3102,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.599534289935563</v>
+        <v>1.554557143096554</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.548516086083798</v>
@@ -3239,7 +3191,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.475898641890666</v>
+        <v>1.450418403313197</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.853541612031261</v>
@@ -3328,7 +3280,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.472314278328692</v>
+        <v>1.452106891727948</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.8675275422537</v>
@@ -3417,7 +3369,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.525559116032043</v>
+        <v>1.496635106420629</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.376038224573446</v>
@@ -3506,7 +3458,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.535342183310788</v>
+        <v>1.50385717122956</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.362928009166561</v>
@@ -3595,7 +3547,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.548052011803487</v>
+        <v>1.512018150252073</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.37042788380921</v>
@@ -3684,7 +3636,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.563590089290668</v>
+        <v>1.524553368817992</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.367410544947348</v>
@@ -3773,7 +3725,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.562853478497445</v>
+        <v>1.522719797842122</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.364730597528241</v>
@@ -3862,7 +3814,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.564217647389195</v>
+        <v>1.528369386616184</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.367039158514855</v>
@@ -3951,7 +3903,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.560907260939051</v>
+        <v>1.524852928504429</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.368600311841512</v>
@@ -4040,7 +3992,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.553207413931676</v>
+        <v>1.526657477662018</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.370685603869831</v>
@@ -4129,7 +4081,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.5552600105944</v>
+        <v>1.530180834766269</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.370003103693477</v>
@@ -4218,7 +4170,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.553530970435127</v>
+        <v>1.528327190769855</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.37165285452977</v>
@@ -4307,7 +4259,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.536058863886692</v>
+        <v>1.500187439318076</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.379019163627818</v>
@@ -4396,7 +4348,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.443521027715122</v>
+        <v>1.43372464792885</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.397234459029338</v>
@@ -4485,7 +4437,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.441538939951793</v>
+        <v>1.427465313466006</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.398132423531528</v>
@@ -4574,7 +4526,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.464514032504158</v>
+        <v>1.44929446466926</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.391559315408767</v>
@@ -4663,7 +4615,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.467415970955112</v>
+        <v>1.448280825377814</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.374147592283746</v>
@@ -4752,7 +4704,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.382051272359658</v>
+        <v>1.380815545725986</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.87343366540103</v>
@@ -4841,7 +4793,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.384832747408986</v>
+        <v>1.383844164965378</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.860592885894076</v>
@@ -4930,7 +4882,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.380186573988931</v>
+        <v>1.379339060582285</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.868993694196925</v>
@@ -5019,7 +4971,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.366016896016764</v>
+        <v>1.370603334106554</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.879120981773148</v>
@@ -5108,7 +5060,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.363816210437965</v>
+        <v>1.367980398664501</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.884879504636076</v>
@@ -5197,7 +5149,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.365773316268643</v>
+        <v>1.368329508977042</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.871151611997547</v>
@@ -5286,7 +5238,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.377016254159344</v>
+        <v>1.379054928353646</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.85431653667985</v>
@@ -5375,7 +5327,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.380047698576618</v>
+        <v>1.382203976782187</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.868495117853116</v>
@@ -5464,7 +5416,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.381261600555748</v>
+        <v>1.384847958783661</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.877907895630455</v>
@@ -5553,7 +5505,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.381655044071905</v>
+        <v>1.382365572086421</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.858567516298294</v>
@@ -5642,7 +5594,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.445651033144693</v>
+        <v>1.440026316466936</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.752716212350746</v>
@@ -5731,7 +5683,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.519614620291972</v>
+        <v>1.501360908871922</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.230768268901653</v>
@@ -5820,7 +5772,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.501950241371484</v>
+        <v>1.482405319711135</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.171113555972711</v>
@@ -5909,7 +5861,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.508953217479063</v>
+        <v>1.485920783782466</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.229902460949934</v>
@@ -5998,7 +5950,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.509192977003973</v>
+        <v>1.490964722269287</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.239557163653896</v>
@@ -6087,7 +6039,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.525521256165326</v>
+        <v>1.503308914461253</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.175655139989376</v>
@@ -6176,7 +6128,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.522802118392367</v>
+        <v>1.499092991514609</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.229336375921804</v>
@@ -6265,7 +6217,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.529813847005189</v>
+        <v>1.502319949138596</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.125217216776427</v>
@@ -6354,7 +6306,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.552470584927034</v>
+        <v>1.518693331429001</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.151348935702158</v>
@@ -6640,7 +6592,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.763702293689736</v>
+        <v>1.732215783565292</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.037291221480394</v>
@@ -6729,7 +6681,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.764689342623772</v>
+        <v>1.73072867385857</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.106296728611041</v>
@@ -6818,7 +6770,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.76676548365223</v>
+        <v>1.722580475792695</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.030488118160617</v>
@@ -6907,7 +6859,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.770158542747283</v>
+        <v>1.730878093364834</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.027455454790292</v>
@@ -6996,7 +6948,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.772495196336442</v>
+        <v>1.731119260527906</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.903451997966883</v>
@@ -7085,7 +7037,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.757362348482348</v>
+        <v>1.71242350530711</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.865718888735476</v>
@@ -7174,7 +7126,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.761670566253484</v>
+        <v>1.702551892105831</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.118612038143787</v>
@@ -7263,7 +7215,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.777239095946975</v>
+        <v>1.703763676390233</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.511145602471682</v>
@@ -7352,7 +7304,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.780877167965198</v>
+        <v>1.705029098265271</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.556274964145778</v>
@@ -7441,7 +7393,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.762272882450854</v>
+        <v>1.679653559616267</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.414781574883973</v>
@@ -7530,7 +7482,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.74454019745446</v>
+        <v>1.657926219294227</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.441021619919549</v>
@@ -7619,7 +7571,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.738701953646687</v>
+        <v>1.644959616144438</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.067188895370548</v>
@@ -7708,7 +7660,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.724064736769455</v>
+        <v>1.630075205230117</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.081323118288362</v>
@@ -7797,7 +7749,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.727056304669392</v>
+        <v>1.631341329236435</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.227012931259932</v>
@@ -7886,7 +7838,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.727466195808185</v>
+        <v>1.63716433840178</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.142133932924921</v>
@@ -7975,7 +7927,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.719112368020201</v>
+        <v>1.635638539716756</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.048597218354829</v>
@@ -8064,7 +8016,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.719071164963999</v>
+        <v>1.634153280120799</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.194633626673855</v>
@@ -8153,7 +8105,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.717294077552444</v>
+        <v>1.637204486362403</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.710463550518768</v>
@@ -8242,7 +8194,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.715524112908476</v>
+        <v>1.633301038269267</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.563429707562217</v>
@@ -8331,7 +8283,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.719763222797063</v>
+        <v>1.627517638063515</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.602885141410632</v>
@@ -8420,7 +8372,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.731449339762832</v>
+        <v>1.634795765079295</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.629864229717008</v>
@@ -8509,7 +8461,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.724970058929405</v>
+        <v>1.626492105013942</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.658553932797898</v>
@@ -8598,7 +8550,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.723662769144381</v>
+        <v>1.62962909859919</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.55337533678962</v>
@@ -8687,7 +8639,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.708617421743839</v>
+        <v>1.616106474257598</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.780119832877889</v>
@@ -8776,7 +8728,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.715661817525411</v>
+        <v>1.628959463527498</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.691074704154087</v>
@@ -8865,7 +8817,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.730001853419169</v>
+        <v>1.64610209352994</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.521357875795491</v>
@@ -8954,7 +8906,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.73112712098627</v>
+        <v>1.654123814973022</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.658459568916819</v>
@@ -9043,7 +8995,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.722995650618173</v>
+        <v>1.649075298252787</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.64615383422367</v>
@@ -9132,7 +9084,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.66448980809012</v>
+        <v>1.617387536798994</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.651481276291038</v>
@@ -9221,7 +9173,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.615510026123932</v>
+        <v>1.579182762247617</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.366083186883582</v>
@@ -9310,7 +9262,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.578022117168098</v>
+        <v>1.545445965442716</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.345059077880919</v>
@@ -9399,7 +9351,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.581053645494575</v>
+        <v>1.553587946240029</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.329094666341339</v>
@@ -9488,7 +9440,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.574901641094689</v>
+        <v>1.555182288351856</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.456151063222027</v>
@@ -9577,7 +9529,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.584268742212421</v>
+        <v>1.565937827992337</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.483184780621292</v>
@@ -9666,7 +9618,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.595451460522566</v>
+        <v>1.585634268276755</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.517452648027271</v>
@@ -9755,7 +9707,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.604547070792921</v>
+        <v>1.600997300566023</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.517419087478332</v>
@@ -9844,7 +9796,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.612618636130916</v>
+        <v>1.610804845601144</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.609549106544628</v>
@@ -9933,7 +9885,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.624116169740313</v>
+        <v>1.624190017002873</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.356344889659269</v>
@@ -10022,7 +9974,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.637127496223615</v>
+        <v>1.639298210556039</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.656570165428626</v>
@@ -10111,7 +10063,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.648997782310266</v>
+        <v>1.655253893061605</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.667705282892408</v>
@@ -10200,7 +10152,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.654356033445594</v>
+        <v>1.660935178079548</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.716887821201305</v>
@@ -10289,7 +10241,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.664226661806996</v>
+        <v>1.665731309974513</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.700988145927729</v>
@@ -10378,7 +10330,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.701304288606125</v>
+        <v>1.700267775127004</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.502511401822356</v>
@@ -10467,7 +10419,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.736225656053363</v>
+        <v>1.72885004095538</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.741452216079248</v>
@@ -10556,7 +10508,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.747507470089295</v>
+        <v>1.737656862008236</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.573508210600874</v>
@@ -10645,7 +10597,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.774361395831495</v>
+        <v>1.76237169754068</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.91342955905251</v>
@@ -10734,7 +10686,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.783733954257162</v>
+        <v>1.773808426084091</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.926443365622657</v>
@@ -10823,7 +10775,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.800802624371222</v>
+        <v>1.788902618009841</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.823923292985693</v>
@@ -10912,7 +10864,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.79659004241174</v>
+        <v>1.781164753487029</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.708580178341083</v>
@@ -11001,7 +10953,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.803763307319254</v>
+        <v>1.781416397243489</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.787547416110638</v>
@@ -11090,7 +11042,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.804318349652838</v>
+        <v>1.782190080305089</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.809762542317588</v>
@@ -11376,7 +11328,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.77569202550368</v>
+        <v>1.709110750092697</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.517607613311258</v>
@@ -11465,7 +11417,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.772736589036904</v>
+        <v>1.701296084851832</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.541785610139452</v>
@@ -11554,7 +11506,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.766930518881325</v>
+        <v>1.692238270562952</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.416855487171629</v>
@@ -11643,7 +11595,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.766865613944562</v>
+        <v>1.690803273789246</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.59346316016114</v>
@@ -11732,7 +11684,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.768812304589339</v>
+        <v>1.687982023908868</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.514271950242062</v>
@@ -11821,7 +11773,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.729334173885009</v>
+        <v>1.636448764542135</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.211748850582057</v>
@@ -11910,7 +11862,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.71032503673309</v>
+        <v>1.590678898598504</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.740007527520163</v>
@@ -11999,7 +11951,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.728744607915936</v>
+        <v>1.594787573915996</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.036796553488208</v>
@@ -12088,7 +12040,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.723218937279027</v>
+        <v>1.589575807836906</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.820106530948838</v>
@@ -12177,7 +12129,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.711531424622517</v>
+        <v>1.567113753630345</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.190960315444991</v>
@@ -12266,7 +12218,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.710055646680354</v>
+        <v>1.559250390496588</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.477938075435478</v>
@@ -12355,7 +12307,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.709720762247863</v>
+        <v>1.554775527148972</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.410996803877511</v>
@@ -12444,7 +12396,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.697563613378864</v>
+        <v>1.553342121089689</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.681829771630851</v>
@@ -12533,7 +12485,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.710950604948968</v>
+        <v>1.564933744304976</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.754006893272016</v>
@@ -12622,7 +12574,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.717384360871555</v>
+        <v>1.579477276186109</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.802905747058836</v>
@@ -12711,7 +12663,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.690598700726575</v>
+        <v>1.567038146852166</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.971736390533608</v>
@@ -12800,7 +12752,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.697754467590698</v>
+        <v>1.582516624887603</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.972204306823271</v>
@@ -12889,7 +12841,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.698369390405602</v>
+        <v>1.591448627078683</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.964861878863838</v>
@@ -12978,7 +12930,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.696116925602132</v>
+        <v>1.587808182448138</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.966392635485251</v>
@@ -13067,7 +13019,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.686309292337875</v>
+        <v>1.579984548552057</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.96830159050132</v>
@@ -13156,7 +13108,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.692907489519455</v>
+        <v>1.582421188345546</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.924624252579797</v>
@@ -13245,7 +13197,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.688664067733134</v>
+        <v>1.584015948508384</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.937367162742316</v>
@@ -13334,7 +13286,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.690331926831803</v>
+        <v>1.590680945262016</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.929221108704085</v>
@@ -13423,7 +13375,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.690132769125406</v>
+        <v>1.584516679578994</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.982898534588189</v>
@@ -13512,7 +13464,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.69468074109475</v>
+        <v>1.595985795966774</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.947688913674281</v>
@@ -13601,7 +13553,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.695989952447882</v>
+        <v>1.603043439464574</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.936776212039889</v>
@@ -13690,7 +13642,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.710744323935931</v>
+        <v>1.614307777129325</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.882047679637887</v>
@@ -13779,7 +13731,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.693606111777651</v>
+        <v>1.605639481535212</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.947341548879693</v>
@@ -13868,7 +13820,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.658411178998926</v>
+        <v>1.592510532072344</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.933315415344423</v>
@@ -13957,7 +13909,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.640655357947528</v>
+        <v>1.57613910848555</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.936242610262245</v>
@@ -14046,7 +13998,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.636493395808635</v>
+        <v>1.578118065217573</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.002699652948444</v>
@@ -14135,7 +14087,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.623946025477458</v>
+        <v>1.561757072225786</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.963805049513623</v>
@@ -14224,7 +14176,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.630206452975084</v>
+        <v>1.567279609885107</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.479391195022988</v>
@@ -14313,7 +14265,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.634226941793535</v>
+        <v>1.57742483110785</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.429101332230819</v>
@@ -14402,7 +14354,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.646432361403611</v>
+        <v>1.594833068357885</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.418141662982117</v>
@@ -14491,7 +14443,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.65342840340266</v>
+        <v>1.61045059119752</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.526213910954481</v>
@@ -14580,7 +14532,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.654105048175316</v>
+        <v>1.611171536940499</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.516909203328795</v>
@@ -14669,7 +14621,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.662717689604244</v>
+        <v>1.617765553328804</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.448384072387519</v>
@@ -14758,7 +14710,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.674379073902377</v>
+        <v>1.629932051504554</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.508384567972771</v>
@@ -14847,7 +14799,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.670611226327556</v>
+        <v>1.630370490399198</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.667135592998632</v>
@@ -14936,7 +14888,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.670870604722823</v>
+        <v>1.630929192123461</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.592379415111834</v>
@@ -15025,7 +14977,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.675981855217582</v>
+        <v>1.635384290409758</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.572381121261947</v>
@@ -15114,7 +15066,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.719098413986189</v>
+        <v>1.661812635132961</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.307608689955285</v>
@@ -15203,7 +15155,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.728041384729894</v>
+        <v>1.661581642271701</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.063496334580756</v>
@@ -15292,7 +15244,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.607184374204947</v>
+        <v>1.564652857816929</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.697266951387195</v>
@@ -15381,7 +15333,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.601427753192074</v>
+        <v>1.551607147312232</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.730146726207434</v>
@@ -15470,7 +15422,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.606137949112526</v>
+        <v>1.553272849193722</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.730970463924369</v>
@@ -15559,7 +15511,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.600364975696338</v>
+        <v>1.552468582928043</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.718612064165565</v>
@@ -15648,7 +15600,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.602108925923634</v>
+        <v>1.550234789981836</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.722300091057667</v>
@@ -15737,7 +15689,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.595386481707257</v>
+        <v>1.541226273394566</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.693153936911361</v>
@@ -15826,7 +15778,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.590005756591507</v>
+        <v>1.532879171511459</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.696472897100169</v>
@@ -16112,7 +16064,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.653555084205598</v>
+        <v>1.514840630148071</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.928220206831949</v>
@@ -16201,7 +16153,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.646990752891683</v>
+        <v>1.503938166677709</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.758000738770879</v>
@@ -16290,7 +16242,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.654279415600908</v>
+        <v>1.512081476605377</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.954986491387126</v>
@@ -16379,7 +16331,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.661996523060104</v>
+        <v>1.518166834196072</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.880670720817518</v>
@@ -16468,7 +16420,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.665478690935952</v>
+        <v>1.525753742516829</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.746379135424577</v>
@@ -16557,7 +16509,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.640667366131176</v>
+        <v>1.497933348204063</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.79969399452126</v>
@@ -16646,7 +16598,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.633954635811172</v>
+        <v>1.480666402018681</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.657651278517256</v>
@@ -16735,7 +16687,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.646081358867083</v>
+        <v>1.475761033765306</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.428431210106287</v>
@@ -16824,7 +16776,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.652197163956086</v>
+        <v>1.482002705934353</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.411216343585153</v>
@@ -16913,7 +16865,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.653674320183327</v>
+        <v>1.482416558543694</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.783751210796256</v>
@@ -17002,7 +16954,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.657583413814065</v>
+        <v>1.477804922853592</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.909546034189532</v>
@@ -17091,7 +17043,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.662135605959527</v>
+        <v>1.478732499547387</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.162122871185734</v>
@@ -17180,7 +17132,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.643627494967587</v>
+        <v>1.466679742726337</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.982049957052448</v>
@@ -17269,7 +17221,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.643073124559216</v>
+        <v>1.46623695744108</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.89896490994726</v>
@@ -17358,7 +17310,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.646482962258013</v>
+        <v>1.476138876947843</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.191697609997183</v>
@@ -17447,7 +17399,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.611750484828538</v>
+        <v>1.466273661403972</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.877860531116444</v>
@@ -17536,7 +17488,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.613162221707473</v>
+        <v>1.468702330027879</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.923407989387359</v>
@@ -17625,7 +17577,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.614445070300377</v>
+        <v>1.47213030692288</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.880055648661429</v>
@@ -17714,7 +17666,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.613297524716759</v>
+        <v>1.469094124651427</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.853139826236469</v>
@@ -17803,7 +17755,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.619085397347338</v>
+        <v>1.474370876614717</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.872567848299531</v>
@@ -17892,7 +17844,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.627421171074492</v>
+        <v>1.483429675654199</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.868528154549277</v>
@@ -17981,7 +17933,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.633325463137398</v>
+        <v>1.490418128959345</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.86694357905281</v>
@@ -18070,7 +18022,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.638232051786519</v>
+        <v>1.498097284637599</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.864229656386373</v>
@@ -18159,7 +18111,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.633410403218014</v>
+        <v>1.490975903293272</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.869318680195386</v>
@@ -18248,7 +18200,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.62991525424481</v>
+        <v>1.495570041695951</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.871502010527517</v>
@@ -18337,7 +18289,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.624929302385158</v>
+        <v>1.496237684345597</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.849522037240033</v>
@@ -18426,7 +18378,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.631853670558787</v>
+        <v>1.505635482663704</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.839469259979046</v>
@@ -18515,7 +18467,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.630231061501541</v>
+        <v>1.513669597291138</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.865821092331278</v>
@@ -18604,7 +18556,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.592440866988726</v>
+        <v>1.498438847583547</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.871510323074278</v>
@@ -18693,7 +18645,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.549503114226485</v>
+        <v>1.464898621345013</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.860255691191748</v>
@@ -18782,7 +18734,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.527392717393797</v>
+        <v>1.45172037316846</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.937160675445402</v>
@@ -18871,7 +18823,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.521113198693268</v>
+        <v>1.453759629666561</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.877144590641191</v>
@@ -18960,7 +18912,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.520704749221092</v>
+        <v>1.451802193510848</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.223368438192023</v>
@@ -19049,7 +19001,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.516790381079001</v>
+        <v>1.450095139971083</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.220642276229602</v>
@@ -19138,7 +19090,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.521429260170941</v>
+        <v>1.456265596296149</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.223343941345763</v>
@@ -19227,7 +19179,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.524056339151572</v>
+        <v>1.464201895283501</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.162583092984173</v>
@@ -19316,7 +19268,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.526533342146883</v>
+        <v>1.467216961497009</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.231532523185901</v>
@@ -19405,7 +19357,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.531384314007677</v>
+        <v>1.472990379338162</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.154663078672631</v>
@@ -19494,7 +19446,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.527821683853414</v>
+        <v>1.473928892944962</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.238899800478717</v>
@@ -19583,7 +19535,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.524811663406494</v>
+        <v>1.473903801906981</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.251347766557089</v>
@@ -19672,7 +19624,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.530189953574574</v>
+        <v>1.485632476833185</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.243615811308842</v>
@@ -19761,7 +19713,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.532621286812452</v>
+        <v>1.483728318225187</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.261921353654371</v>
@@ -19850,7 +19802,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.560823890107786</v>
+        <v>1.503992040741488</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.019327851458011</v>
@@ -19939,7 +19891,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.570290649801626</v>
+        <v>1.503368171124512</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.084022974261407</v>
@@ -20028,7 +19980,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.521325528668412</v>
+        <v>1.461223794080565</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.963745483963339</v>
@@ -20117,7 +20069,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.508718260401253</v>
+        <v>1.444489094969155</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.975975916084888</v>
@@ -20206,7 +20158,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.509202296287117</v>
+        <v>1.446856521560498</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.993327395298661</v>
@@ -20295,7 +20247,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.499828075387961</v>
+        <v>1.440966256766824</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.973789343202834</v>
@@ -20384,7 +20336,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.500247558370412</v>
+        <v>1.430654397455797</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.967083680347149</v>
@@ -20473,7 +20425,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.499097761495342</v>
+        <v>1.423432737134593</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.987386645814629</v>
@@ -20562,7 +20514,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.495091852670216</v>
+        <v>1.4138825095671</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.946428569517528</v>
@@ -20848,7 +20800,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.503165537128492</v>
+        <v>1.472948918591676</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.982016300103832</v>
@@ -20937,7 +20889,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.503752678704027</v>
+        <v>1.47317291636053</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.946321521653995</v>
@@ -21026,7 +20978,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.50529688819631</v>
+        <v>1.470702807561276</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.923107158062654</v>
@@ -21115,7 +21067,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.511327846322844</v>
+        <v>1.473561328779484</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.987530965975837</v>
@@ -21204,7 +21156,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.519075940155978</v>
+        <v>1.479933968368724</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.982765868124692</v>
@@ -21293,7 +21245,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.503361512234888</v>
+        <v>1.467326985283169</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.930560461282944</v>
@@ -21382,7 +21334,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.570377947035074</v>
+        <v>1.511646438574534</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.858733462249817</v>
@@ -21471,7 +21423,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.700972805150753</v>
+        <v>1.605177405552376</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.343817001516105</v>
@@ -21560,7 +21512,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.709511661171092</v>
+        <v>1.607940668061262</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.525432586709208</v>
@@ -21649,7 +21601,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.694403696110082</v>
+        <v>1.585532190800965</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.521211224635704</v>
@@ -21738,7 +21690,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.687213129148465</v>
+        <v>1.566140075669444</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.542226900671533</v>
@@ -21827,7 +21779,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.684076979898229</v>
+        <v>1.559453779122064</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.43401412324262</v>
@@ -21916,7 +21868,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.68466687027098</v>
+        <v>1.554160242481655</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.003478162087208</v>
@@ -22005,7 +21957,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.680515525739099</v>
+        <v>1.556497430514534</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.43263611594621</v>
@@ -22094,7 +22046,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.681955126921554</v>
+        <v>1.563512955371055</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.492084207105751</v>
@@ -22183,7 +22135,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.664704578885668</v>
+        <v>1.559580200244982</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.300927575312708</v>
@@ -22272,7 +22224,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.658407505231936</v>
+        <v>1.553642709759489</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.20350370967467</v>
@@ -22361,7 +22313,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.665181057993354</v>
+        <v>1.554044935797172</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.888272056469678</v>
@@ -22450,7 +22402,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.665772931901326</v>
+        <v>1.550906400072656</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.838796849769592</v>
@@ -22539,7 +22491,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.668662655969711</v>
+        <v>1.549764261968625</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.874001550824928</v>
@@ -22628,7 +22580,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.681281457816151</v>
+        <v>1.555335903280456</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.864057611054237</v>
@@ -22717,7 +22669,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.68345389375145</v>
+        <v>1.56263494255572</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.873717965646689</v>
@@ -22806,7 +22758,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.682841836532509</v>
+        <v>1.563554605998748</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.867288446914712</v>
@@ -22895,7 +22847,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.658155606635421</v>
+        <v>1.551679970056414</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.835840926577624</v>
@@ -22984,7 +22936,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.665020104994092</v>
+        <v>1.563223546398083</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.856602226023339</v>
@@ -23073,7 +23025,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.661332898454442</v>
+        <v>1.56720153963015</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.854347717590239</v>
@@ -23162,7 +23114,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.666114962250723</v>
+        <v>1.57163968192706</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.827153817930493</v>
@@ -23251,7 +23203,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.624812543818514</v>
+        <v>1.543846704975476</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.871589530918541</v>
@@ -23340,7 +23292,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.597776904980864</v>
+        <v>1.53168113897514</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.899671947954367</v>
@@ -23429,7 +23381,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.54773580901763</v>
+        <v>1.495351282853018</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.876847134470612</v>
@@ -23518,7 +23470,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.517179718316354</v>
+        <v>1.468604348283291</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.91642997804762</v>
@@ -23607,7 +23559,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.512731686096772</v>
+        <v>1.475652409544898</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.861059068547986</v>
@@ -23696,7 +23648,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.496324325560443</v>
+        <v>1.467368270289445</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.262558284966442</v>
@@ -23785,7 +23737,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.4952548994648</v>
+        <v>1.468125582308157</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.275923889487466</v>
@@ -23874,7 +23826,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.445982892509602</v>
+        <v>1.430789866142841</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.106586234475824</v>
@@ -23963,7 +23915,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.444304524335504</v>
+        <v>1.439539058799093</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.114633390890442</v>
@@ -24052,7 +24004,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.449401133421679</v>
+        <v>1.445676948130898</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.145940264642593</v>
@@ -24141,7 +24093,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.458876509882268</v>
+        <v>1.452710405143776</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.162813422077385</v>
@@ -24230,7 +24182,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.459582198405767</v>
+        <v>1.452601411328722</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.161610310499654</v>
@@ -24319,7 +24271,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.462948156860603</v>
+        <v>1.458770116824088</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.138692196265825</v>
@@ -24408,7 +24360,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.464992502827983</v>
+        <v>1.465688877677658</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.164167241870207</v>
@@ -24497,7 +24449,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.467250423603111</v>
+        <v>1.465167332845112</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.21098750248298</v>
@@ -24586,7 +24538,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.502463690129162</v>
+        <v>1.497755343752806</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.168707307183543</v>
@@ -24675,7 +24627,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.512539050193473</v>
+        <v>1.503599050627848</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.12347446128685</v>
@@ -24764,7 +24716,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.515013975820539</v>
+        <v>1.498486219320325</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.146551899644129</v>
@@ -24853,7 +24805,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.508322010787917</v>
+        <v>1.485041347100286</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.233480233275166</v>
@@ -24942,7 +24894,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.515646909780983</v>
+        <v>1.487978821433632</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.227348204754768</v>
@@ -25031,7 +24983,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.520962449438997</v>
+        <v>1.498831402154627</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.190905772452918</v>
@@ -25120,7 +25072,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.525021689141874</v>
+        <v>1.500091223551722</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.124467768463171</v>
@@ -25209,7 +25161,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.590340150171001</v>
+        <v>1.548711828745068</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.197904598811605</v>
@@ -25298,7 +25250,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.595318276440072</v>
+        <v>1.545398397094417</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.211467867828676</v>
@@ -25584,7 +25536,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.611163025179857</v>
+        <v>1.545987277472129</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.554297060992844</v>
@@ -25673,7 +25625,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.607044223443584</v>
+        <v>1.537904598252444</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.657907020880669</v>
@@ -25762,7 +25714,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.610001200179069</v>
+        <v>1.54067325149726</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.649214685407508</v>
@@ -25851,7 +25803,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.629970475922364</v>
+        <v>1.551896466854273</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.246951886237797</v>
@@ -25940,7 +25892,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.593250824612301</v>
+        <v>1.533766785667739</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.462253771537784</v>
@@ -26029,7 +25981,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.600426991162432</v>
+        <v>1.53837638394732</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.543743583056876</v>
@@ -26118,7 +26070,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.601586010557039</v>
+        <v>1.536408673910598</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.51443899899182</v>
@@ -26207,7 +26159,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.604256016425391</v>
+        <v>1.535808772013218</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.4578064781173</v>
@@ -26296,7 +26248,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.618452435919742</v>
+        <v>1.551328061614324</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.377863815421492</v>
@@ -26385,7 +26337,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.629408860788382</v>
+        <v>1.557358643497013</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.455823481882826</v>
@@ -26474,7 +26426,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.6313219865508</v>
+        <v>1.555491285967571</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.413116446994576</v>
@@ -26563,7 +26515,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.631236809188245</v>
+        <v>1.549244217858792</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.443445046330873</v>
@@ -26652,7 +26604,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.598448744681175</v>
+        <v>1.528264238524639</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.400845076419505</v>
@@ -26741,7 +26693,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.595398790261812</v>
+        <v>1.528312952501245</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.366957909237216</v>
@@ -26830,7 +26782,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.587860731819575</v>
+        <v>1.526088598967612</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.447813368970238</v>
@@ -26919,7 +26871,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.491138455451818</v>
+        <v>1.46239812340051</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.060272489206787</v>
@@ -27008,7 +26960,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.490961154527615</v>
+        <v>1.463853874929003</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.064075321256503</v>
@@ -27097,7 +27049,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.502981601319782</v>
+        <v>1.473811755083429</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.064070361699602</v>
@@ -27186,7 +27138,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.529844376965146</v>
+        <v>1.495551990731252</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.941336790868958</v>
@@ -27275,7 +27227,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.548417332399332</v>
+        <v>1.506668038735918</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.051070074666271</v>
@@ -27364,7 +27316,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.560005627042103</v>
+        <v>1.5145015887067</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.019618986864362</v>
@@ -27453,7 +27405,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.564508550630663</v>
+        <v>1.519553059735024</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.043153728230214</v>
@@ -27542,7 +27494,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.558833394231609</v>
+        <v>1.512957737220462</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.013780853045294</v>
@@ -27631,7 +27583,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.528150168240872</v>
+        <v>1.489577024748066</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.040579911575103</v>
@@ -27720,7 +27672,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.52963340789285</v>
+        <v>1.49316211450925</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.025489094945259</v>
@@ -27809,7 +27761,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.526599405110724</v>
+        <v>1.486783654971682</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.02344097569074</v>
@@ -27898,7 +27850,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.52771401226971</v>
+        <v>1.491599918910025</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.943720255403938</v>
@@ -27987,7 +27939,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.520881478733117</v>
+        <v>1.485745759623279</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.757138048183463</v>
@@ -28076,7 +28028,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.382595481960885</v>
+        <v>1.368452721949364</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.805756722778966</v>
@@ -28165,7 +28117,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.377496320528278</v>
+        <v>1.356520384099314</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.759901688416933</v>
@@ -28254,7 +28206,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.403347105629234</v>
+        <v>1.379438682458873</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.781020708874861</v>
@@ -28343,7 +28295,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.392515783732386</v>
+        <v>1.372723676532657</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.773756460838948</v>
@@ -28432,7 +28384,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.368538093370107</v>
+        <v>1.351141310899475</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.774973779798302</v>
@@ -28521,7 +28473,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.36716922725618</v>
+        <v>1.348053984996019</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.783054360279772</v>
@@ -28610,7 +28562,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.362422097028174</v>
+        <v>1.347269608497391</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.793742160468916</v>
@@ -28699,7 +28651,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.347074689251964</v>
+        <v>1.334173227855236</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.81134941439864</v>
@@ -28788,7 +28740,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.342009627530248</v>
+        <v>1.33055907988542</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.788394697950797</v>
@@ -28877,7 +28829,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.352825281509206</v>
+        <v>1.343369363301882</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.728199593682928</v>
@@ -28966,7 +28918,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.357171282667589</v>
+        <v>1.347359195152802</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.798769810107951</v>
@@ -29055,7 +29007,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.352230127974762</v>
+        <v>1.341917206433803</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.808950722589323</v>
@@ -29144,7 +29096,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.350544221319017</v>
+        <v>1.342530057922834</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.794716650477567</v>
@@ -29233,7 +29185,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.350979332566314</v>
+        <v>1.341470316991181</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.780166182045595</v>
@@ -29322,7 +29274,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.422598204066234</v>
+        <v>1.404239350623169</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.824837475374523</v>
@@ -29411,7 +29363,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.474935598225058</v>
+        <v>1.453952476956525</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.258636938772097</v>
@@ -29500,7 +29452,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.486325555301296</v>
+        <v>1.458301908358289</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.26598854668093</v>
@@ -29589,7 +29541,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.4695412860123</v>
+        <v>1.436486618621833</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.26866740444221</v>
@@ -29678,7 +29630,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.478151827777419</v>
+        <v>1.443556423159723</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.175810186471117</v>
@@ -29767,7 +29719,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.491262620073875</v>
+        <v>1.4545490232702</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.208969956891011</v>
@@ -29856,7 +29808,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.492266012576973</v>
+        <v>1.447981686292872</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.216662664412561</v>
@@ -29945,7 +29897,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.516570239431097</v>
+        <v>1.461586998975538</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.099778814898343</v>
@@ -30034,7 +29986,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.529105333630692</v>
+        <v>1.464479390750296</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.218230934237746</v>
